--- a/slot_balance_20250408.xlsx
+++ b/slot_balance_20250408.xlsx
@@ -44,42 +44,43 @@
     <t>Counter Value</t>
   </si>
   <si>
-    <t>2025-04-08 11:36:34</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:37:01</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:37:32</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:37:57</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:38:25</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:38:53</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:39:30</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:39:55</t>
-  </si>
-  <si>
-    <t>2025-04-08 11:40:14</t>
+    <t>2025-04-08 11:54:42</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:55:07</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:55:36</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:56:00</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:56:26</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:56:52</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:57:28</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:57:51</t>
+  </si>
+  <si>
+    <t>2025-04-08 11:58:09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -712,9 +713,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1066,32 +1071,32 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1102,10 +1107,10 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>5329861</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>5359861</v>
+      </c>
+      <c r="D2" s="1">
         <v>350577</v>
       </c>
       <c r="E2">
@@ -1119,10 +1124,10 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>65305861</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>5335861</v>
+      </c>
+      <c r="D3" s="1">
         <v>-26873</v>
       </c>
       <c r="E3">
@@ -1136,10 +1141,10 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>65302861</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>5332861</v>
+      </c>
+      <c r="D4" s="1">
         <v>-16220</v>
       </c>
       <c r="E4">
@@ -1153,10 +1158,10 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>5284861</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>5314861</v>
+      </c>
+      <c r="D5" s="1">
         <v>-23965</v>
       </c>
       <c r="E5">
@@ -1170,11 +1175,11 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>5266861</v>
-      </c>
-      <c r="D6">
-        <v>-60023558</v>
+      <c r="C6" s="1">
+        <v>5296861</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-23558</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1187,10 +1192,10 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>5241361</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>5271361</v>
+      </c>
+      <c r="D7" s="1">
         <v>-27722</v>
       </c>
       <c r="E7">
@@ -1204,11 +1209,11 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>65231361</v>
-      </c>
-      <c r="D8">
-        <v>59974696</v>
+      <c r="C8" s="1">
+        <v>5261361</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-25304</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1221,10 +1226,10 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>5207361</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <v>5237361</v>
+      </c>
+      <c r="D9" s="1">
         <v>-26896</v>
       </c>
       <c r="E9">
@@ -1238,10 +1243,10 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>65177361</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>5207361</v>
+      </c>
+      <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10">
